--- a/biology/Botanique/Gainier_rouge/Gainier_rouge.xlsx
+++ b/biology/Botanique/Gainier_rouge/Gainier_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Cercis canadensis
 Le gainier du Canada ou gainier rouge (Cercis canadensis) est un petit arbre au feuillage caduc originaire d'Amérique du Nord, de la famille des fabacées selon la classification phylogénétique (anciennement de la famille des césalpiniacées). C’est l’arbre de l’État de l’Oklahoma.
@@ -513,9 +525,11 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (19 janvier 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (19 janvier 2019) :
 Cercis canadensis var. canadensis L.
 Cercis canadensis var. mexicana (Rose) M. Hopkins
 Cercis canadensis var. texensis (S. Watson) M. Hopkins</t>
